--- a/Сoaxial Сylinders v_1.11/Documents/Different/Зависимость Ф(Re).xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Зависимость Ф(Re).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873C5937-FA2E-4FC9-B671-C3F0240DE303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,78 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>conf. 1</t>
+  </si>
+  <si>
+    <t>conf. 2</t>
+  </si>
+  <si>
+    <t>conf. 3</t>
+  </si>
+  <si>
+    <t>conf. 4</t>
+  </si>
+  <si>
+    <t>conf. 5</t>
+  </si>
+  <si>
+    <t>conf. 0</t>
+  </si>
+  <si>
+    <r>
+      <t>Ф</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -45,15 +114,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +702,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="A1:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="19">
+        <v>11.5536905366</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20.3013909758</v>
+      </c>
+      <c r="D3" s="3">
+        <v>24.287546932600002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>35.068159736600002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>25.231119914099999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30.771993846800001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2.0615488725</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.6342475500000004</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.0144925689999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8.6583180646999995</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.5213927022</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8.4709216986999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>10</v>
+      </c>
+      <c r="B5" s="20">
+        <v>2.1784296346000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.9497290348999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.3848458015</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.2159897653999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.8865052008000003</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8.9823401411999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>90</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2.2347721644999998</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6.5519642110999996</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7.8866670987000003</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9.8734658517000007</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7.4832578109999996</v>
+      </c>
+      <c r="G6" s="7">
+        <v>9.5345569895000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Сoaxial Сylinders v_1.11/Documents/Different/Зависимость Ф(Re).xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Зависимость Ф(Re).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873C5937-FA2E-4FC9-B671-C3F0240DE303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5083C41-9B9A-4A30-AD76-7AB575CEA95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,27 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
   <si>
     <t>Re</t>
-  </si>
-  <si>
-    <t>conf. 1</t>
-  </si>
-  <si>
-    <t>conf. 2</t>
-  </si>
-  <si>
-    <t>conf. 3</t>
-  </si>
-  <si>
-    <t>conf. 4</t>
-  </si>
-  <si>
-    <t>conf. 5</t>
-  </si>
-  <si>
-    <t>conf. 0</t>
   </si>
   <si>
     <r>
@@ -62,6 +45,57 @@
       </rPr>
       <t>int</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">N (Mesh) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> h1 (face) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> h2 (radius) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> h3 (area) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Max (h1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Max (h2)</t>
+  </si>
+  <si>
+    <t>Max (h3)</t>
+  </si>
+  <si>
+    <t>Ux</t>
+  </si>
+  <si>
+    <t>Ф</t>
+  </si>
+  <si>
+    <t>Ф_an</t>
+  </si>
+  <si>
+    <t>Ф_Integral</t>
+  </si>
+  <si>
+    <t>conf, 0</t>
+  </si>
+  <si>
+    <t>conf, 1</t>
+  </si>
+  <si>
+    <t>conf, 2</t>
+  </si>
+  <si>
+    <t>conf, 3</t>
+  </si>
+  <si>
+    <t>conf, 4</t>
+  </si>
+  <si>
+    <t>conf, 5</t>
   </si>
 </sst>
 </file>
@@ -393,6 +427,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,21 +457,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -703,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,44 +752,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>5</v>
+      <c r="A2" s="18"/>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="8">
         <v>0.1</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>11.5536905366</v>
       </c>
       <c r="C3" s="3">
@@ -775,10 +809,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="15">
         <v>2.0615488725</v>
       </c>
       <c r="C4" s="2">
@@ -798,10 +832,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="9">
         <v>10</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="15">
         <v>2.1784296346000001</v>
       </c>
       <c r="C5" s="2">
@@ -821,10 +855,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="10">
         <v>90</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="16">
         <v>2.2347721644999998</v>
       </c>
       <c r="C6" s="6">
@@ -841,6 +875,146 @@
       </c>
       <c r="G6" s="7">
         <v>9.5345569895000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>5742</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.7624727199999999E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.0119769199999998E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.31780358E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5.6414159800000002E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.6903748000000002E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9.6169460000000001E-4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>-2.1235114100000001E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.12036305930000001</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6.4584349971000004</v>
+      </c>
+      <c r="K40" s="1">
+        <v>8.4698105318000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>5742</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.7624727199999999E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.0119769199999998E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.31780358E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5.6414159800000002E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2.6903748000000002E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>9.6169460000000001E-4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-2.1245228500000001E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.1201709951</v>
+      </c>
+      <c r="J41" s="1">
+        <v>6.4584349971000004</v>
+      </c>
+      <c r="K41" s="1">
+        <v>8.4709216986999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>5742</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.7624727199999999E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.0119769199999998E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.31780358E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5.6414159800000002E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2.6903748000000002E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>9.6169460000000001E-4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>-2.1415469999999999E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.120340593</v>
+      </c>
+      <c r="J42" s="1">
+        <v>6.4584349971000004</v>
+      </c>
+      <c r="K42" s="1">
+        <v>8.4891137081999997</v>
       </c>
     </row>
   </sheetData>
@@ -851,4 +1025,1210 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9DF316-3817-4DB5-8C27-DBC20B29EFCD}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2.0616130159999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.6336418119999996</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.0139497850000003</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8.6567432800000006</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.520589223</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.4698105320000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2.061761299</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.6342475500000004</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.0144925689999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>8.6583180649999996</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.521392702</v>
+      </c>
+      <c r="G4" s="5">
+        <v>8.4709216989999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2.0637341839999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.6553685260000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.0300469550000004</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.6818103089999994</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.5409073810000002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8.4891137079999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>90</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2.1194346579999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6.2121791139999996</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7.4532103989999996</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9.1303403900000006</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7.042967913</v>
+      </c>
+      <c r="G6" s="7">
+        <v>8.8823722269999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6922</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.6157448299999998E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.8571305199999999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.12338465E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.34101873E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.1752620100000002E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.1713019999999998E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-9.4433315300000001E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.8929487485000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7.5691573292000003</v>
+      </c>
+      <c r="K10" s="1">
+        <f>4*0.5154032541</f>
+        <v>2.0616130163999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6922</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.6157448299999998E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.8571305199999999E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.12338465E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.34101873E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.1752620100000002E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6.1713019999999998E-4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-9.4447774700000001E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.8924469414</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7.5691573292000003</v>
+      </c>
+      <c r="K11" s="1">
+        <f>4*0.5154403248</f>
+        <v>2.0617612992000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6922</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.6157448299999998E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.8571305199999999E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.12338465E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.34101873E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.1752620100000002E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6.1713019999999998E-4</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-9.4609912300000001E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.8901781013000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7.5691573292000003</v>
+      </c>
+      <c r="K12" s="1">
+        <f xml:space="preserve"> 4* 0.515933546</f>
+        <v>2.0637341839999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>6922</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.6157448299999998E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.8571305199999999E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.12338465E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.34101873E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.1752620100000002E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6.1713019999999998E-4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-9.5984825400000001E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.9029639339</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7.5691573292000003</v>
+      </c>
+      <c r="K13" s="1">
+        <f>4*0.5298586644</f>
+        <v>2.1194346575999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6923</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-3.2757279999999999E-3</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.8639661700000002E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5.6336418115000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>6923</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-3.2618276999999999E-3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7.8810537799999997E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5.6342475500000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>6923</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-3.2223903E-3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8.4196405200000005E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5.6553685258000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6923</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-4.9660212999999998E-3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.29367090969999998</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K19" s="1">
+        <v>6.2121791138000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>6979</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.6002791299999999E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.8365861599999998E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.1026843600000001E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4.4822349800000001E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.2907505500000001E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6.8269550000000004E-4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-4.7264454000000003E-3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.12552273720000001</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7.258510953</v>
+      </c>
+      <c r="K22" s="1">
+        <v>7.0139497851000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>6979</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.6002791299999999E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.8365861599999998E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.1026843600000001E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.4822349800000001E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.2907505500000001E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6.8269550000000004E-4</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-4.7245211000000002E-3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.12549317809999999</v>
+      </c>
+      <c r="J23" s="1">
+        <v>7.258510953</v>
+      </c>
+      <c r="K23" s="1">
+        <v>7.0144925689999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>6979</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.6002791299999999E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.8365861599999998E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.1026843600000001E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4.4822349800000001E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.2907505500000001E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6.8269550000000004E-4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-4.7533528999999996E-3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.12681452009999999</v>
+      </c>
+      <c r="J24" s="1">
+        <v>7.258510953</v>
+      </c>
+      <c r="K24" s="1">
+        <v>7.0300469552999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>6979</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.6002791299999999E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.8365861599999998E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.1026843600000001E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.4822349800000001E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.2907505500000001E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6.8269550000000004E-4</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-5.1718125000000002E-3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.12902214070000001</v>
+      </c>
+      <c r="J25" s="1">
+        <v>7.258510953</v>
+      </c>
+      <c r="K25" s="1">
+        <v>7.4532103989999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>6943</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.52412829E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.7366305299999999E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.07140107E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.10141877E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.2787854900000003E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.4063487E-3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-2.4526447000000002E-3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>8.1479438500000001E-2</v>
+      </c>
+      <c r="J28" s="1">
+        <v>6.7781796254</v>
+      </c>
+      <c r="K28" s="1">
+        <v>8.6567432798000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>6943</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.52412829E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.7366305299999999E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.07140107E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6.10141877E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.2787854900000003E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.4063487E-3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-2.4557964999999998E-3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>8.1937507000000007E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6.7781796254</v>
+      </c>
+      <c r="K29" s="1">
+        <v>8.6583180646999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>6943</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.52412829E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.7366305299999999E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.07140107E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>6.10141877E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3.2787854900000003E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.4063487E-3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-2.5005814000000001E-3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>8.7433885099999997E-2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>6.7781796254</v>
+      </c>
+      <c r="K30" s="1">
+        <v>8.6818103093999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>6943</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.52412829E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.7366305299999999E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.07140107E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>6.10141877E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.2787854900000003E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1.4063487E-3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-3.0540430999999998E-3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.155411616</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6.7781796254</v>
+      </c>
+      <c r="K31" s="1">
+        <v>9.1303403896000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>5740</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.74373354E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.99126401E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2.3271607699999999E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5.6592591999999997E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.73905742E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.0127421999999999E-3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-0.10414987439999999</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2.0098738096000002</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7.1806688971000003</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6.5205892231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>5740</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.74373354E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.99126401E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.3271607699999999E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5.6592591999999997E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.73905742E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.0127421999999999E-3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-0.1042705463</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2.0170314709000001</v>
+      </c>
+      <c r="J35" s="1">
+        <v>7.1806688971000003</v>
+      </c>
+      <c r="K35" s="1">
+        <v>6.5213927022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>5740</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.74373354E-2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.99126401E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.3271607699999999E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5.6592591999999997E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.73905742E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.0127421999999999E-3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-0.1053001428</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2.0780559851999998</v>
+      </c>
+      <c r="J36" s="1">
+        <v>7.1806688971000003</v>
+      </c>
+      <c r="K36" s="1">
+        <v>6.5409073812000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>5740</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.74373354E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.99126401E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2.3271607699999999E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.6592591999999997E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.73905742E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1.0127421999999999E-3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-0.1102653431</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.5389527834000001</v>
+      </c>
+      <c r="J37" s="1">
+        <v>7.1806688971000003</v>
+      </c>
+      <c r="K37" s="1">
+        <v>7.0429679127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>5742</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.7624727199999999E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.0119769199999998E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.31780358E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5.6414159800000002E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.6903748000000002E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9.6169460000000001E-4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>-2.1235114100000001E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.12036305930000001</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6.4584349971000004</v>
+      </c>
+      <c r="K40" s="1">
+        <v>8.4698105318000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>5742</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.7624727199999999E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.0119769199999998E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.31780358E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5.6414159800000002E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2.6903748000000002E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>9.6169460000000001E-4</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-2.1245228500000001E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.1201709951</v>
+      </c>
+      <c r="J41" s="1">
+        <v>6.4584349971000004</v>
+      </c>
+      <c r="K41" s="1">
+        <v>8.4709216986999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>5742</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.7624727199999999E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.0119769199999998E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.31780358E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5.6414159800000002E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2.6903748000000002E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>9.6169460000000001E-4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>-2.1415469999999999E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.120340593</v>
+      </c>
+      <c r="J42" s="1">
+        <v>6.4584349971000004</v>
+      </c>
+      <c r="K42" s="1">
+        <v>8.4891137081999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>5742</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.7624727199999999E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.0119769199999998E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.31780358E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5.6414159800000002E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2.6903748000000002E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>9.6169460000000001E-4</v>
+      </c>
+      <c r="H43" s="1">
+        <v>-2.39181145E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.15010188720000001</v>
+      </c>
+      <c r="J43" s="1">
+        <v>6.4584349971000004</v>
+      </c>
+      <c r="K43" s="1">
+        <v>8.8823722266999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Сoaxial Сylinders v_1.11/Documents/Different/Зависимость Ф(Re).xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Зависимость Ф(Re).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5083C41-9B9A-4A30-AD76-7AB575CEA95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1137A5DF-C816-4F22-8E80-34A519B8FAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ф(Re)" sheetId="2" r:id="rId2"/>
+    <sheet name="Np(Re)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="23">
   <si>
     <t>Re</t>
   </si>
@@ -97,6 +98,18 @@
   <si>
     <t>conf, 5</t>
   </si>
+  <si>
+    <t>Power_Number</t>
+  </si>
+  <si>
+    <t>x: 0,0000</t>
+  </si>
+  <si>
+    <t>y: 0,2500</t>
+  </si>
+  <si>
+    <t>Time: 1,8750</t>
+  </si>
 </sst>
 </file>
 
@@ -418,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -455,6 +468,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1031,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9DF316-3817-4DB5-8C27-DBC20B29EFCD}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,4 +2247,409 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A31D39F-6930-4796-8B38-50128AD08F06}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="L8:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="22"/>
+    <col min="15" max="15" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>6923</v>
+      </c>
+      <c r="B2" s="22">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D2" s="22">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E2" s="22">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F2" s="22">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G2" s="22">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H2" s="22">
+        <v>-3.2757279999999999E-3</v>
+      </c>
+      <c r="I2" s="22">
+        <v>7.8639661700000002E-2</v>
+      </c>
+      <c r="J2" s="22">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K2" s="22">
+        <v>5.6336418115000004</v>
+      </c>
+      <c r="L2" s="22">
+        <v>1802.7653796738</v>
+      </c>
+      <c r="M2" s="22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>6923</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E3" s="22">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G3" s="22">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H3" s="22">
+        <v>-3.2691870999999998E-3</v>
+      </c>
+      <c r="I3" s="22">
+        <v>7.8705523299999997E-2</v>
+      </c>
+      <c r="J3" s="22">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K3" s="22">
+        <v>5.6338244417999999</v>
+      </c>
+      <c r="L3" s="22">
+        <v>360.56476427619998</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>6923</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D4" s="22">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E4" s="22">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G4" s="22">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H4" s="22">
+        <v>-3.2618297000000002E-3</v>
+      </c>
+      <c r="I4" s="22">
+        <v>7.8810573999999994E-2</v>
+      </c>
+      <c r="J4" s="22">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K4" s="22">
+        <v>5.6342481339999999</v>
+      </c>
+      <c r="L4" s="22">
+        <v>180.29594028860001</v>
+      </c>
+      <c r="M4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>6923</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D5" s="22">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H5" s="22">
+        <v>-3.2223903E-3</v>
+      </c>
+      <c r="I5" s="22">
+        <v>8.4196405200000005E-2</v>
+      </c>
+      <c r="J5" s="22">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K5" s="22">
+        <v>5.6553685258000002</v>
+      </c>
+      <c r="L5" s="22">
+        <v>18.097179282500001</v>
+      </c>
+      <c r="M5" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>6923</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D6" s="22">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E6" s="22">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H6" s="22">
+        <v>-3.3251572000000001E-3</v>
+      </c>
+      <c r="I6" s="22">
+        <v>9.6713647099999994E-2</v>
+      </c>
+      <c r="J6" s="22">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K6" s="22">
+        <v>5.7051094120999997</v>
+      </c>
+      <c r="L6" s="22">
+        <v>9.1281750594000002</v>
+      </c>
+      <c r="M6" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>6923</v>
+      </c>
+      <c r="B7" s="22">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D7" s="22">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E7" s="22">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G7" s="22">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H7" s="22">
+        <v>-3.5073077000000001E-3</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0.1143880105</v>
+      </c>
+      <c r="J7" s="22">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K7" s="22">
+        <v>5.7722904100000001</v>
+      </c>
+      <c r="L7" s="22">
+        <v>6.1571097707</v>
+      </c>
+      <c r="M7" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>6923</v>
+      </c>
+      <c r="B8" s="22">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D8" s="22">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E8" s="22">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G8" s="22">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H8" s="22">
+        <v>-3.9622214000000003E-3</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0.1612476937</v>
+      </c>
+      <c r="J8" s="22">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K8" s="22">
+        <v>5.9256140639000003</v>
+      </c>
+      <c r="L8" s="22">
+        <v>3.7923930009000002</v>
+      </c>
+      <c r="M8" s="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>6923</v>
+      </c>
+      <c r="B9" s="22">
+        <v>1.6073853799999999E-2</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1.8459330999999999E-2</v>
+      </c>
+      <c r="D9" s="22">
+        <v>2.1117931400000001E-2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>4.4421197000000003E-2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2.2025218900000001E-2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>6.3842550000000004E-4</v>
+      </c>
+      <c r="H9" s="22">
+        <v>-4.9660212999999998E-3</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0.29367090969999998</v>
+      </c>
+      <c r="J9" s="22">
+        <v>7.3945365684000004</v>
+      </c>
+      <c r="K9" s="22">
+        <v>6.2121791138000004</v>
+      </c>
+      <c r="L9" s="22">
+        <v>2.2087747960000002</v>
+      </c>
+      <c r="M9" s="22">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>